--- a/data/trans_dic/P19F$noche-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P19F$noche-Dificultad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7668705242247598</v>
+        <v>0.7686980907889934</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7874787416853835</v>
+        <v>0.7916506771114845</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7874290978533383</v>
+        <v>0.7907873937171784</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8278693054915381</v>
+        <v>0.830836000356877</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8458046997903349</v>
+        <v>0.8468334029137704</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8306811472324098</v>
+        <v>0.83129905788592</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7164813971912795</v>
+        <v>0.7137145777450323</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8007828401151676</v>
+        <v>0.8025190016488228</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7724351383086377</v>
+        <v>0.7700744676239268</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7957564218565475</v>
+        <v>0.7927911882627634</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8685548889845938</v>
+        <v>0.8726800045300448</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8212544092108774</v>
+        <v>0.8231763989184943</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7231281683522683</v>
+        <v>0.7294655603759198</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7018682664773161</v>
+        <v>0.6993102767028206</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7330616088190807</v>
+        <v>0.7328061726363357</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8198388130143888</v>
+        <v>0.8233894340449673</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7973393575605731</v>
+        <v>0.7958091965685483</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7979664982324852</v>
+        <v>0.7974140563558142</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7008927554999971</v>
+        <v>0.7018371998269508</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.714601204279206</v>
+        <v>0.7115917302022904</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7216231356565307</v>
+        <v>0.7268481224550103</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8121344468730337</v>
+        <v>0.8110418954161205</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8307554971417852</v>
+        <v>0.8246856256880037</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8010815439096256</v>
+        <v>0.8033685729431472</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7558017138226045</v>
+        <v>0.7570263551480585</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.785646829611727</v>
+        <v>0.7862937937897977</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7779131640164473</v>
+        <v>0.7765737591836991</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.796521313737107</v>
+        <v>0.7958485721320983</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8249832626777733</v>
+        <v>0.8250307809644145</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8053672590194308</v>
+        <v>0.8052037531989846</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>489546</v>
+        <v>490712</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>547167</v>
+        <v>550066</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1049802</v>
+        <v>1054279</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>528485</v>
+        <v>530379</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>587694</v>
+        <v>588409</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1107466</v>
+        <v>1108290</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>352683</v>
+        <v>351321</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>393420</v>
+        <v>394273</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>759719</v>
+        <v>757397</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>391706</v>
+        <v>390246</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>426716</v>
+        <v>428742</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>807734</v>
+        <v>809624</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>261611</v>
+        <v>263904</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>234371</v>
+        <v>233517</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>509992</v>
+        <v>509814</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>296599</v>
+        <v>297883</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>266252</v>
+        <v>265741</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>555146</v>
+        <v>554762</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>191798</v>
+        <v>192056</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>157163</v>
+        <v>156501</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>356177</v>
+        <v>358756</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>222239</v>
+        <v>221940</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>182709</v>
+        <v>181374</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>395396</v>
+        <v>396525</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1334772</v>
+        <v>1336935</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1367013</v>
+        <v>1368139</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2727378</v>
+        <v>2722682</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1406685</v>
+        <v>1405496</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1435458</v>
+        <v>1435540</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2823633</v>
+        <v>2823060</v>
       </c>
     </row>
     <row r="24">
